--- a/Adicionales/SI2019_Adicionales.xlsx
+++ b/Adicionales/SI2019_Adicionales.xlsx
@@ -618,10 +618,10 @@
   <dimension ref="A2:BN26"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" workbookViewId="0">
-      <pane xSplit="2" ySplit="3" topLeftCell="V4" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="2" ySplit="3" topLeftCell="BB4" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="C1" sqref="C1"/>
       <selection pane="bottomLeft" activeCell="A4" sqref="A4"/>
-      <selection pane="bottomRight" activeCell="AP7" sqref="AP7"/>
+      <selection pane="bottomRight" activeCell="BC8" sqref="BC8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -893,7 +893,9 @@
       <c r="AZ4" s="11"/>
       <c r="BA4" s="11"/>
       <c r="BB4" s="11"/>
-      <c r="BC4" s="11"/>
+      <c r="BC4" s="11">
+        <v>5</v>
+      </c>
       <c r="BD4" s="11"/>
       <c r="BE4" s="11"/>
       <c r="BF4" s="11"/>
@@ -906,7 +908,7 @@
       <c r="BM4" s="12"/>
       <c r="BN4" s="7">
         <f>SUM(C4:BM4)</f>
-        <v>2</v>
+        <v>7</v>
       </c>
     </row>
     <row r="5" spans="1:66" x14ac:dyDescent="0.25">
@@ -970,7 +972,9 @@
       <c r="AZ5" s="11"/>
       <c r="BA5" s="11"/>
       <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
+      <c r="BC5" s="11">
+        <v>-2</v>
+      </c>
       <c r="BD5" s="11"/>
       <c r="BE5" s="11"/>
       <c r="BF5" s="11"/>
@@ -983,7 +987,7 @@
       <c r="BM5" s="12"/>
       <c r="BN5" s="7">
         <f t="shared" ref="BN5:BN25" si="0">SUM(C5:BM5)</f>
-        <v>-3</v>
+        <v>-5</v>
       </c>
     </row>
     <row r="6" spans="1:66" x14ac:dyDescent="0.25">
@@ -1049,7 +1053,9 @@
       <c r="AZ6" s="11"/>
       <c r="BA6" s="11"/>
       <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
+      <c r="BC6" s="11">
+        <v>2</v>
+      </c>
       <c r="BD6" s="11"/>
       <c r="BE6" s="11"/>
       <c r="BF6" s="11"/>
@@ -1062,7 +1068,7 @@
       <c r="BM6" s="12"/>
       <c r="BN6" s="7">
         <f t="shared" si="0"/>
-        <v>12</v>
+        <v>14</v>
       </c>
     </row>
     <row r="7" spans="1:66" x14ac:dyDescent="0.25">
@@ -1128,7 +1134,9 @@
       <c r="AZ7" s="11"/>
       <c r="BA7" s="11"/>
       <c r="BB7" s="11"/>
-      <c r="BC7" s="11"/>
+      <c r="BC7" s="11">
+        <v>4</v>
+      </c>
       <c r="BD7" s="11"/>
       <c r="BE7" s="11"/>
       <c r="BF7" s="11"/>
@@ -1141,7 +1149,7 @@
       <c r="BM7" s="12"/>
       <c r="BN7" s="7">
         <f t="shared" si="0"/>
-        <v>18</v>
+        <v>22</v>
       </c>
     </row>
     <row r="8" spans="1:66" x14ac:dyDescent="0.25">
@@ -1204,8 +1212,12 @@
       <c r="AY8" s="11"/>
       <c r="AZ8" s="11"/>
       <c r="BA8" s="11"/>
-      <c r="BB8" s="11"/>
-      <c r="BC8" s="11"/>
+      <c r="BB8" s="11">
+        <v>5</v>
+      </c>
+      <c r="BC8" s="11">
+        <v>2</v>
+      </c>
       <c r="BD8" s="11"/>
       <c r="BE8" s="11"/>
       <c r="BF8" s="11"/>
@@ -1218,7 +1230,7 @@
       <c r="BM8" s="12"/>
       <c r="BN8" s="7">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>9</v>
       </c>
     </row>
     <row r="9" spans="1:66" x14ac:dyDescent="0.25">
